--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,20 +268,20 @@
     <t>Author.institution</t>
   </si>
   <si>
-    <t>AuthorSubmissionSet.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
-</t>
+    <t>AuthorSubmissionSet.person[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatienthttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNRhttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
   </si>
   <si>
     <t xml:space="preserve">Cette métadonnée représente la personne physique ou le système émetteur du lot de soumission.Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient.  </t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Author.person</t>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Author.person[x]</t>
   </si>
   <si>
     <t>AuthorSubmissionSet.role</t>
@@ -642,7 +642,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="189.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -297,7 +297,7 @@
     <t>**Author Role**</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
@@ -315,7 +315,7 @@
     <t>**AutorSpecialty**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J01-XdsAuthorSpecialty-CISIS/FHIR/JDV-J01-XdsAuthorSpecialty-CISIS</t>
   </si>
   <si>
     <t>Author.specialty</t>
@@ -657,7 +657,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorSubmissionSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
